--- a/RadiusEarth/data.xlsx
+++ b/RadiusEarth/data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\University\Physics\PHY324\PHY324-github\RadiusEarth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E3C34-5FC8-49F0-8EF5-55D2AA0A63C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AC8F53-B90E-4103-BC01-593679E9968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp1" sheetId="1" r:id="rId1"/>
     <sheet name="Exp2" sheetId="2" r:id="rId2"/>
+    <sheet name="Exp3" sheetId="3" r:id="rId3"/>
+    <sheet name="Exp4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
   <si>
     <t>Counter</t>
   </si>
@@ -70,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -490,7 +493,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,4 +678,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C82299-91A9-4D8F-AAC6-F31D1507F7FD}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>567</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>568.29999999999995</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.41388888888888892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>590.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.41944444444444445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>590.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.42777777777777781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.43402777777777773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>603.79999999999995</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.43958333333333338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>621.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.44375000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>630.20000000000005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.44861111111111113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>557.79999999999995</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DC947B-C9BA-4709-ADF9-C95A80906C04}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>632.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>653.4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.46388888888888885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>658.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>673.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>562.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.47500000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RadiusEarth/data.xlsx
+++ b/RadiusEarth/data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\University\Physics\PHY324\PHY324-github\RadiusEarth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AC8F53-B90E-4103-BC01-593679E9968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D206E8-D6FD-4F45-ACBC-33EF18AB6266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp1" sheetId="1" r:id="rId1"/>
     <sheet name="Exp2" sheetId="2" r:id="rId2"/>
     <sheet name="Exp3" sheetId="3" r:id="rId3"/>
     <sheet name="Exp4" sheetId="4" r:id="rId4"/>
+    <sheet name="Trend" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
   <si>
     <t>Counter</t>
   </si>
@@ -492,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DE4CFD-228C-4CED-88DC-616378E549B2}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DC947B-C9BA-4709-ADF9-C95A80906C04}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -896,4 +897,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339A3ACA-A9E6-4597-9383-5E791FCB3080}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>567</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>555.20000000000005</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.43402777777777773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>557.79999999999995</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.45347222222222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RadiusEarth/data.xlsx
+++ b/RadiusEarth/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\University\Physics\PHY324\PHY324-github\RadiusEarth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D206E8-D6FD-4F45-ACBC-33EF18AB6266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A203878-AE4C-44BD-876D-DD1BFF5EE75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp1" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DE4CFD-228C-4CED-88DC-616378E549B2}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,7 +811,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339A3ACA-A9E6-4597-9383-5E791FCB3080}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -954,7 +954,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C5" s="1"/>
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>562.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.47500000000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>

--- a/RadiusEarth/data.xlsx
+++ b/RadiusEarth/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\University\Physics\PHY324\PHY324-github\RadiusEarth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A203878-AE4C-44BD-876D-DD1BFF5EE75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EEC7AD-DFD0-4722-9512-A716AEEB4FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,7 +359,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -374,7 +374,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>560.20000000000005</v>
@@ -382,7 +382,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>571.20000000000005</v>
@@ -390,7 +390,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>579.1</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>592.9</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>607.4</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>619.6</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>627.79999999999995</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>640.70000000000005</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>648.4</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>668</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>673.9</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>690.5</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>717.5</v>
@@ -494,7 +494,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>555.6</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>569.6</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>582.4</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>598</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>609.70000000000005</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>629</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>631</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>643.6</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>651.1</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>665.6</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>677.8</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>686.8</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>559.6</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>602.4</v>
@@ -904,7 +904,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/RadiusEarth/data.xlsx
+++ b/RadiusEarth/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\University\Physics\PHY324\PHY324-github\RadiusEarth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EEC7AD-DFD0-4722-9512-A716AEEB4FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66129C3-3826-4489-B532-6C8C3DF3688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="Exp3" sheetId="3" r:id="rId3"/>
     <sheet name="Exp4" sheetId="4" r:id="rId4"/>
     <sheet name="Trend" sheetId="5" r:id="rId5"/>
+    <sheet name="Exp1-1" sheetId="6" r:id="rId6"/>
+    <sheet name="Exp2-1" sheetId="7" r:id="rId7"/>
+    <sheet name="Exp3-1" sheetId="8" r:id="rId8"/>
+    <sheet name="Exp4-1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="3">
   <si>
     <t>Counter</t>
   </si>
@@ -359,7 +363,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="D15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,7 +498,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +690,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,7 +815,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:C6"/>
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339A3ACA-A9E6-4597-9383-5E791FCB3080}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -976,4 +980,461 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF4DE2F-E017-40B3-BBFE-D76AEF60A83A}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>560.20000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>571.20000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>579.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>592.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>607.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>619.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>627.79999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>640.70000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>648.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>673.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231EDDFB-78F3-44DC-8CD6-EF22F3E104AE}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="A13:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>555.6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>569.6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>582.4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>598</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>609.70000000000005</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>629</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>631</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>643.6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>651.1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>665.6</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>677.8</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227208F2-E254-4D4B-9494-2A3C9981CC6F}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>567</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>568.29999999999995</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.41388888888888892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>590.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.41944444444444445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>590.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.42777777777777781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>603.79999999999995</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.43958333333333338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>621.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.44375000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>630.20000000000005</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.44861111111111113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88EDF86C-F65E-4C8D-B506-B04059319AB6}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>632.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>653.4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.46388888888888885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>658.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>673.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>562.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.47500000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>